--- a/libertadores/datasets_liberta/resultados_fase_1.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_1.xlsx
@@ -772,6 +772,9 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
       <c r="G2" t="s">
         <v>66</v>
       </c>
@@ -780,6 +783,9 @@
       </c>
       <c r="I2" t="s">
         <v>98</v>
+      </c>
+      <c r="J2">
+        <v>4.1</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -798,6 +804,9 @@
       <c r="E3" t="s">
         <v>51</v>
       </c>
+      <c r="F3">
+        <v>21.2</v>
+      </c>
       <c r="G3" t="s">
         <v>67</v>
       </c>
@@ -806,6 +815,9 @@
       </c>
       <c r="I3" t="s">
         <v>99</v>
+      </c>
+      <c r="J3">
+        <v>10.8</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -824,6 +836,9 @@
       <c r="E4" t="s">
         <v>52</v>
       </c>
+      <c r="F4">
+        <v>9.800000000000001</v>
+      </c>
       <c r="G4" t="s">
         <v>68</v>
       </c>
@@ -832,6 +847,9 @@
       </c>
       <c r="I4" t="s">
         <v>100</v>
+      </c>
+      <c r="J4">
+        <v>4.1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -850,6 +868,9 @@
       <c r="E5" t="s">
         <v>53</v>
       </c>
+      <c r="F5">
+        <v>1.7</v>
+      </c>
       <c r="G5" t="s">
         <v>69</v>
       </c>
@@ -858,6 +879,9 @@
       </c>
       <c r="I5" t="s">
         <v>101</v>
+      </c>
+      <c r="J5">
+        <v>21.4</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -876,6 +900,9 @@
       <c r="E6" t="s">
         <v>54</v>
       </c>
+      <c r="F6">
+        <v>0.2</v>
+      </c>
       <c r="G6" t="s">
         <v>70</v>
       </c>
@@ -884,6 +911,9 @@
       </c>
       <c r="I6" t="s">
         <v>102</v>
+      </c>
+      <c r="J6">
+        <v>13.2</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -902,6 +932,9 @@
       <c r="E7" t="s">
         <v>55</v>
       </c>
+      <c r="F7">
+        <v>4.65</v>
+      </c>
       <c r="G7" t="s">
         <v>71</v>
       </c>
@@ -910,6 +943,9 @@
       </c>
       <c r="I7" t="s">
         <v>103</v>
+      </c>
+      <c r="J7">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -928,6 +964,9 @@
       <c r="E8" t="s">
         <v>56</v>
       </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
       <c r="G8" t="s">
         <v>72</v>
       </c>
@@ -936,6 +975,9 @@
       </c>
       <c r="I8" t="s">
         <v>104</v>
+      </c>
+      <c r="J8">
+        <v>5.8</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -954,6 +996,9 @@
       <c r="E9" t="s">
         <v>57</v>
       </c>
+      <c r="F9">
+        <v>3.3</v>
+      </c>
       <c r="G9" t="s">
         <v>73</v>
       </c>
@@ -962,6 +1007,9 @@
       </c>
       <c r="I9" t="s">
         <v>105</v>
+      </c>
+      <c r="J9">
+        <v>4.1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -980,6 +1028,9 @@
       <c r="E10" t="s">
         <v>58</v>
       </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
       <c r="G10" t="s">
         <v>74</v>
       </c>
@@ -988,6 +1039,9 @@
       </c>
       <c r="I10" t="s">
         <v>106</v>
+      </c>
+      <c r="J10">
+        <v>12.8</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1006,6 +1060,9 @@
       <c r="E11" t="s">
         <v>59</v>
       </c>
+      <c r="F11">
+        <v>19.1</v>
+      </c>
       <c r="G11" t="s">
         <v>75</v>
       </c>
@@ -1014,6 +1071,9 @@
       </c>
       <c r="I11" t="s">
         <v>107</v>
+      </c>
+      <c r="J11">
+        <v>2.8</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1032,6 +1092,9 @@
       <c r="E12" t="s">
         <v>60</v>
       </c>
+      <c r="F12">
+        <v>15.7</v>
+      </c>
       <c r="G12" t="s">
         <v>76</v>
       </c>
@@ -1040,6 +1103,9 @@
       </c>
       <c r="I12" t="s">
         <v>108</v>
+      </c>
+      <c r="J12">
+        <v>7.44</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1058,6 +1124,9 @@
       <c r="E13" t="s">
         <v>61</v>
       </c>
+      <c r="F13">
+        <v>4.1</v>
+      </c>
       <c r="G13" t="s">
         <v>77</v>
       </c>
@@ -1066,6 +1135,9 @@
       </c>
       <c r="I13" t="s">
         <v>109</v>
+      </c>
+      <c r="J13">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1084,6 +1156,9 @@
       <c r="E14" t="s">
         <v>62</v>
       </c>
+      <c r="F14">
+        <v>0.2</v>
+      </c>
       <c r="G14" t="s">
         <v>78</v>
       </c>
@@ -1092,6 +1167,9 @@
       </c>
       <c r="I14" t="s">
         <v>110</v>
+      </c>
+      <c r="J14">
+        <v>5.3</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1110,6 +1188,9 @@
       <c r="E15" t="s">
         <v>63</v>
       </c>
+      <c r="F15">
+        <v>4.7</v>
+      </c>
       <c r="G15" t="s">
         <v>79</v>
       </c>
@@ -1118,6 +1199,9 @@
       </c>
       <c r="I15" t="s">
         <v>111</v>
+      </c>
+      <c r="J15">
+        <v>11.16</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1136,6 +1220,9 @@
       <c r="E16" t="s">
         <v>64</v>
       </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
       <c r="G16" t="s">
         <v>80</v>
       </c>
@@ -1145,8 +1232,11 @@
       <c r="I16" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="17" spans="1:9">
+      <c r="J16">
+        <v>12.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1162,6 +1252,9 @@
       <c r="E17" t="s">
         <v>65</v>
       </c>
+      <c r="F17">
+        <v>4.1</v>
+      </c>
       <c r="G17" t="s">
         <v>81</v>
       </c>
@@ -1170,6 +1263,9 @@
       </c>
       <c r="I17" t="s">
         <v>113</v>
+      </c>
+      <c r="J17">
+        <v>31.56</v>
       </c>
     </row>
   </sheetData>

--- a/libertadores/datasets_liberta/resultados_fase_1.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_1.xlsx
@@ -773,7 +773,7 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>40.21</v>
       </c>
       <c r="G2" t="s">
         <v>66</v>
@@ -785,7 +785,7 @@
         <v>98</v>
       </c>
       <c r="J2">
-        <v>4.1</v>
+        <v>46.36</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -805,7 +805,7 @@
         <v>51</v>
       </c>
       <c r="F3">
-        <v>21.2</v>
+        <v>49.86</v>
       </c>
       <c r="G3" t="s">
         <v>67</v>
@@ -817,7 +817,7 @@
         <v>99</v>
       </c>
       <c r="J3">
-        <v>10.8</v>
+        <v>44.17</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -837,7 +837,7 @@
         <v>52</v>
       </c>
       <c r="F4">
-        <v>9.800000000000001</v>
+        <v>31.67</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -849,7 +849,7 @@
         <v>100</v>
       </c>
       <c r="J4">
-        <v>4.1</v>
+        <v>38.27</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -869,7 +869,7 @@
         <v>53</v>
       </c>
       <c r="F5">
-        <v>1.7</v>
+        <v>37.72</v>
       </c>
       <c r="G5" t="s">
         <v>69</v>
@@ -881,7 +881,7 @@
         <v>101</v>
       </c>
       <c r="J5">
-        <v>21.4</v>
+        <v>47.72</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -901,7 +901,7 @@
         <v>54</v>
       </c>
       <c r="F6">
-        <v>0.2</v>
+        <v>35.36</v>
       </c>
       <c r="G6" t="s">
         <v>70</v>
@@ -913,7 +913,7 @@
         <v>102</v>
       </c>
       <c r="J6">
-        <v>13.2</v>
+        <v>37.96</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -933,7 +933,7 @@
         <v>55</v>
       </c>
       <c r="F7">
-        <v>4.65</v>
+        <v>35.25</v>
       </c>
       <c r="G7" t="s">
         <v>71</v>
@@ -945,7 +945,7 @@
         <v>103</v>
       </c>
       <c r="J7">
-        <v>-1.2</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -965,7 +965,7 @@
         <v>56</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>46.27</v>
       </c>
       <c r="G8" t="s">
         <v>72</v>
@@ -977,7 +977,7 @@
         <v>104</v>
       </c>
       <c r="J8">
-        <v>5.8</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -997,7 +997,7 @@
         <v>57</v>
       </c>
       <c r="F9">
-        <v>3.3</v>
+        <v>52.72</v>
       </c>
       <c r="G9" t="s">
         <v>73</v>
@@ -1009,7 +1009,7 @@
         <v>105</v>
       </c>
       <c r="J9">
-        <v>4.1</v>
+        <v>52.33</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>34.06</v>
       </c>
       <c r="G10" t="s">
         <v>74</v>
@@ -1041,7 +1041,7 @@
         <v>106</v>
       </c>
       <c r="J10">
-        <v>12.8</v>
+        <v>52.57</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1061,7 +1061,7 @@
         <v>59</v>
       </c>
       <c r="F11">
-        <v>19.1</v>
+        <v>29.76</v>
       </c>
       <c r="G11" t="s">
         <v>75</v>
@@ -1073,7 +1073,7 @@
         <v>107</v>
       </c>
       <c r="J11">
-        <v>2.8</v>
+        <v>23.4</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1093,7 +1093,7 @@
         <v>60</v>
       </c>
       <c r="F12">
-        <v>15.7</v>
+        <v>45.92</v>
       </c>
       <c r="G12" t="s">
         <v>76</v>
@@ -1105,7 +1105,7 @@
         <v>108</v>
       </c>
       <c r="J12">
-        <v>7.44</v>
+        <v>37.94</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1125,7 +1125,7 @@
         <v>61</v>
       </c>
       <c r="F13">
-        <v>4.1</v>
+        <v>43.77</v>
       </c>
       <c r="G13" t="s">
         <v>77</v>
@@ -1137,7 +1137,7 @@
         <v>109</v>
       </c>
       <c r="J13">
-        <v>-1.3</v>
+        <v>31.19</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1157,7 +1157,7 @@
         <v>62</v>
       </c>
       <c r="F14">
-        <v>0.2</v>
+        <v>41.27</v>
       </c>
       <c r="G14" t="s">
         <v>78</v>
@@ -1169,7 +1169,7 @@
         <v>110</v>
       </c>
       <c r="J14">
-        <v>5.3</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1189,7 +1189,7 @@
         <v>63</v>
       </c>
       <c r="F15">
-        <v>4.7</v>
+        <v>33.52</v>
       </c>
       <c r="G15" t="s">
         <v>79</v>
@@ -1201,7 +1201,7 @@
         <v>111</v>
       </c>
       <c r="J15">
-        <v>11.16</v>
+        <v>55.71</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1221,7 +1221,7 @@
         <v>64</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>51.33</v>
       </c>
       <c r="G16" t="s">
         <v>80</v>
@@ -1233,7 +1233,7 @@
         <v>112</v>
       </c>
       <c r="J16">
-        <v>12.8</v>
+        <v>55.53</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1253,7 +1253,7 @@
         <v>65</v>
       </c>
       <c r="F17">
-        <v>4.1</v>
+        <v>35.87</v>
       </c>
       <c r="G17" t="s">
         <v>81</v>
@@ -1265,7 +1265,7 @@
         <v>113</v>
       </c>
       <c r="J17">
-        <v>31.56</v>
+        <v>53.26</v>
       </c>
     </row>
   </sheetData>

--- a/libertadores/datasets_liberta/resultados_fase_1.xlsx
+++ b/libertadores/datasets_liberta/resultados_fase_1.xlsx
@@ -773,7 +773,7 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>40.21</v>
+        <v>70.56005859375</v>
       </c>
       <c r="G2" t="s">
         <v>66</v>
@@ -785,7 +785,7 @@
         <v>98</v>
       </c>
       <c r="J2">
-        <v>46.36</v>
+        <v>74.41015625</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -805,7 +805,7 @@
         <v>51</v>
       </c>
       <c r="F3">
-        <v>49.86</v>
+        <v>68.06005859375</v>
       </c>
       <c r="G3" t="s">
         <v>67</v>
@@ -817,7 +817,7 @@
         <v>99</v>
       </c>
       <c r="J3">
-        <v>44.17</v>
+        <v>70.81005859375</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -837,7 +837,7 @@
         <v>52</v>
       </c>
       <c r="F4">
-        <v>31.67</v>
+        <v>62.56005859375</v>
       </c>
       <c r="G4" t="s">
         <v>68</v>
@@ -849,7 +849,7 @@
         <v>100</v>
       </c>
       <c r="J4">
-        <v>38.27</v>
+        <v>59.659912109375</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -869,7 +869,7 @@
         <v>53</v>
       </c>
       <c r="F5">
-        <v>37.72</v>
+        <v>70.35986328125</v>
       </c>
       <c r="G5" t="s">
         <v>69</v>
@@ -881,7 +881,7 @@
         <v>101</v>
       </c>
       <c r="J5">
-        <v>47.72</v>
+        <v>68.10986328125</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -901,7 +901,7 @@
         <v>54</v>
       </c>
       <c r="F6">
-        <v>35.36</v>
+        <v>65.4599609375</v>
       </c>
       <c r="G6" t="s">
         <v>70</v>
@@ -913,7 +913,7 @@
         <v>102</v>
       </c>
       <c r="J6">
-        <v>37.96</v>
+        <v>41.860107421875</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -933,7 +933,7 @@
         <v>55</v>
       </c>
       <c r="F7">
-        <v>35.25</v>
+        <v>90.10009765625</v>
       </c>
       <c r="G7" t="s">
         <v>71</v>
@@ -945,7 +945,7 @@
         <v>103</v>
       </c>
       <c r="J7">
-        <v>30.96</v>
+        <v>64.259765625</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -965,7 +965,7 @@
         <v>56</v>
       </c>
       <c r="F8">
-        <v>46.27</v>
+        <v>73.9599609375</v>
       </c>
       <c r="G8" t="s">
         <v>72</v>
@@ -977,7 +977,7 @@
         <v>104</v>
       </c>
       <c r="J8">
-        <v>26.32</v>
+        <v>53.9599609375</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -997,7 +997,7 @@
         <v>57</v>
       </c>
       <c r="F9">
-        <v>52.72</v>
+        <v>75.60986328125</v>
       </c>
       <c r="G9" t="s">
         <v>73</v>
@@ -1009,7 +1009,7 @@
         <v>105</v>
       </c>
       <c r="J9">
-        <v>52.33</v>
+        <v>69.52978515625</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1029,7 +1029,7 @@
         <v>58</v>
       </c>
       <c r="F10">
-        <v>34.06</v>
+        <v>62.9599609375</v>
       </c>
       <c r="G10" t="s">
         <v>74</v>
@@ -1041,7 +1041,7 @@
         <v>106</v>
       </c>
       <c r="J10">
-        <v>52.57</v>
+        <v>84.4599609375</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1061,7 +1061,7 @@
         <v>59</v>
       </c>
       <c r="F11">
-        <v>29.76</v>
+        <v>53.260009765625</v>
       </c>
       <c r="G11" t="s">
         <v>75</v>
@@ -1073,7 +1073,7 @@
         <v>107</v>
       </c>
       <c r="J11">
-        <v>23.4</v>
+        <v>64.91015625</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1093,7 +1093,7 @@
         <v>60</v>
       </c>
       <c r="F12">
-        <v>45.92</v>
+        <v>76.9599609375</v>
       </c>
       <c r="G12" t="s">
         <v>76</v>
@@ -1105,7 +1105,7 @@
         <v>108</v>
       </c>
       <c r="J12">
-        <v>37.94</v>
+        <v>69.39013671875</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1125,7 +1125,7 @@
         <v>61</v>
       </c>
       <c r="F13">
-        <v>43.77</v>
+        <v>63.9599609375</v>
       </c>
       <c r="G13" t="s">
         <v>77</v>
@@ -1137,7 +1137,7 @@
         <v>109</v>
       </c>
       <c r="J13">
-        <v>31.19</v>
+        <v>50.2900390625</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1157,7 +1157,7 @@
         <v>62</v>
       </c>
       <c r="F14">
-        <v>41.27</v>
+        <v>71.4599609375</v>
       </c>
       <c r="G14" t="s">
         <v>78</v>
@@ -1169,7 +1169,7 @@
         <v>110</v>
       </c>
       <c r="J14">
-        <v>17.52</v>
+        <v>18.81005859375</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1189,7 +1189,7 @@
         <v>63</v>
       </c>
       <c r="F15">
-        <v>33.52</v>
+        <v>66.259765625</v>
       </c>
       <c r="G15" t="s">
         <v>79</v>
@@ -1201,7 +1201,7 @@
         <v>111</v>
       </c>
       <c r="J15">
-        <v>55.71</v>
+        <v>85.85986328125</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1221,7 +1221,7 @@
         <v>64</v>
       </c>
       <c r="F16">
-        <v>51.33</v>
+        <v>78.93017578125</v>
       </c>
       <c r="G16" t="s">
         <v>80</v>
@@ -1233,7 +1233,7 @@
         <v>112</v>
       </c>
       <c r="J16">
-        <v>55.53</v>
+        <v>87.330078125</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1253,7 +1253,7 @@
         <v>65</v>
       </c>
       <c r="F17">
-        <v>35.87</v>
+        <v>69.9599609375</v>
       </c>
       <c r="G17" t="s">
         <v>81</v>
@@ -1265,7 +1265,7 @@
         <v>113</v>
       </c>
       <c r="J17">
-        <v>53.26</v>
+        <v>76.06005859375</v>
       </c>
     </row>
   </sheetData>
